--- a/temp_timetable.xlsx
+++ b/temp_timetable.xlsx
@@ -523,17 +523,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -583,19 +583,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -643,17 +643,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -708,12 +708,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -763,17 +763,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -888,12 +888,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1143,12 +1143,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1243,19 +1243,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1303,17 +1303,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1363,17 +1363,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1423,17 +1423,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1483,19 +1483,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -1503,12 +1503,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1543,19 +1543,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1603,17 +1603,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1783,17 +1783,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1843,17 +1843,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1903,17 +1903,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1968,12 +1968,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2023,17 +2023,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2263,17 +2263,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2323,17 +2323,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -2503,17 +2503,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -2683,17 +2683,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2763,12 +2763,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2863,17 +2863,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -2923,17 +2923,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -3048,14 +3048,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -3063,12 +3063,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3103,17 +3103,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -3223,17 +3223,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3283,17 +3283,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3343,17 +3343,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3403,17 +3403,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3483,12 +3483,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -3523,17 +3523,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -3583,17 +3583,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -3643,17 +3643,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -3708,12 +3708,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -3823,17 +3823,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -3883,19 +3883,19 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -3903,12 +3903,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -3948,14 +3948,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -3963,12 +3963,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -4003,17 +4003,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4063,17 +4063,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -4123,17 +4123,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4143,12 +4143,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -4183,17 +4183,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -4243,17 +4243,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -4303,17 +4303,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -4423,17 +4423,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4443,12 +4443,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -4488,12 +4488,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -4543,17 +4543,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4563,12 +4563,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -4608,12 +4608,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -4668,14 +4668,14 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -4683,12 +4683,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -4723,17 +4723,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4743,12 +4743,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -4843,17 +4843,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -4963,17 +4963,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4983,12 +4983,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -5023,17 +5023,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5043,12 +5043,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -5088,12 +5088,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -5203,17 +5203,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5223,12 +5223,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -5263,17 +5263,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5323,19 +5323,19 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I82" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -5343,12 +5343,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -5383,17 +5383,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5443,17 +5443,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -5503,19 +5503,19 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I85" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -5523,12 +5523,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -5568,12 +5568,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5623,17 +5623,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5643,12 +5643,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -5683,17 +5683,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5703,12 +5703,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -5748,12 +5748,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -5808,12 +5808,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -5863,17 +5863,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5923,17 +5923,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5943,12 +5943,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -6043,17 +6043,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6063,12 +6063,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -6163,17 +6163,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6183,12 +6183,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -6223,17 +6223,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6243,12 +6243,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -6283,17 +6283,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -6343,17 +6343,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -6583,17 +6583,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -6643,17 +6643,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -6763,17 +6763,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6783,12 +6783,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6843,12 +6843,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -6883,17 +6883,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6903,12 +6903,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -6943,17 +6943,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6963,12 +6963,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -7063,17 +7063,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7083,12 +7083,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -7123,17 +7123,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7143,12 +7143,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -7183,17 +7183,17 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -7243,17 +7243,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7263,12 +7263,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -7363,17 +7363,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -7543,17 +7543,17 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7563,12 +7563,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -7603,17 +7603,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -7663,17 +7663,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7683,12 +7683,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -7843,19 +7843,19 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I124" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -7863,12 +7863,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -7903,17 +7903,17 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7923,12 +7923,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -7963,19 +7963,19 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I126" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -7983,12 +7983,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -8023,17 +8023,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -8083,17 +8083,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -8143,17 +8143,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8163,12 +8163,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -8203,17 +8203,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8223,12 +8223,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -8268,12 +8268,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8283,12 +8283,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -8323,17 +8323,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8343,12 +8343,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -8388,14 +8388,14 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I133" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -8403,12 +8403,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -8443,17 +8443,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -8503,17 +8503,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8523,12 +8523,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -8563,17 +8563,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8583,12 +8583,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -8623,17 +8623,17 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -8643,12 +8643,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -8683,17 +8683,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -8743,17 +8743,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8763,12 +8763,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -8863,17 +8863,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -8928,12 +8928,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8943,12 +8943,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -8983,17 +8983,17 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -9043,17 +9043,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -9103,17 +9103,17 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -9123,12 +9123,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -9163,17 +9163,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -9183,12 +9183,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -9223,17 +9223,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -9243,12 +9243,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -9283,17 +9283,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -9523,17 +9523,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -9543,12 +9543,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -9588,14 +9588,14 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I153" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -9603,12 +9603,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -9643,17 +9643,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -9663,12 +9663,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -9703,17 +9703,17 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -9763,17 +9763,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9783,12 +9783,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -9823,17 +9823,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9843,12 +9843,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -9883,17 +9883,17 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9903,12 +9903,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -9948,12 +9948,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9963,12 +9963,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -10063,17 +10063,17 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -10123,17 +10123,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -10183,17 +10183,17 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -10203,12 +10203,12 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -10308,12 +10308,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -10323,12 +10323,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -10388,7 +10388,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -10428,12 +10428,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -10443,12 +10443,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L167" t="n">
@@ -10483,17 +10483,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -10543,17 +10543,17 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -10603,17 +10603,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -10623,12 +10623,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -10663,19 +10663,19 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
       <c r="I171" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -10683,12 +10683,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -10728,12 +10728,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L172" t="n">
@@ -10783,19 +10783,19 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I173" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -10803,12 +10803,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L173" t="n">

--- a/temp_timetable.xlsx
+++ b/temp_timetable.xlsx
@@ -523,17 +523,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -583,17 +583,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -643,19 +643,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -663,12 +663,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -703,17 +703,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -763,19 +763,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -783,12 +783,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -823,17 +823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -943,19 +943,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -963,12 +963,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1123,19 +1123,19 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1303,17 +1303,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1363,17 +1363,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1543,17 +1543,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1603,17 +1603,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1663,19 +1663,19 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -1683,12 +1683,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1723,19 +1723,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -1743,12 +1743,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1783,17 +1783,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1843,19 +1843,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -1863,12 +1863,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1903,17 +1903,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1963,17 +1963,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2023,17 +2023,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2043,12 +2043,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2083,17 +2083,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2323,17 +2323,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2443,17 +2443,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2503,17 +2503,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -2563,17 +2563,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -2623,17 +2623,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2683,17 +2683,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2763,12 +2763,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -2803,17 +2803,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -2863,17 +2863,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -2928,12 +2928,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2983,17 +2983,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3103,19 +3103,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -3223,17 +3223,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3283,17 +3283,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3343,17 +3343,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3403,17 +3403,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3523,17 +3523,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -3583,19 +3583,19 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -3603,12 +3603,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -3643,17 +3643,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -3703,17 +3703,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -3763,17 +3763,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3783,12 +3783,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -3823,17 +3823,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3903,12 +3903,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4068,12 +4068,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -4123,17 +4123,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -4243,17 +4243,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -4303,17 +4303,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -4423,17 +4423,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4443,12 +4443,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -4483,17 +4483,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -4543,17 +4543,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4563,12 +4563,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -4603,19 +4603,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -4623,12 +4623,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -4663,17 +4663,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4783,17 +4783,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -4843,17 +4843,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4863,12 +4863,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4923,12 +4923,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -5023,17 +5023,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5043,12 +5043,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -5088,12 +5088,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -5143,17 +5143,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5163,12 +5163,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -5208,12 +5208,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5223,12 +5223,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -5268,12 +5268,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5343,12 +5343,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -5383,17 +5383,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5403,12 +5403,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -5443,17 +5443,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -5503,17 +5503,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -5563,17 +5563,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5583,12 +5583,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -5623,19 +5623,19 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I87" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -5643,12 +5643,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -5683,17 +5683,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5703,12 +5703,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -5743,17 +5743,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -5803,17 +5803,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -5863,17 +5863,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5883,12 +5883,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -5983,17 +5983,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -6043,17 +6043,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6063,12 +6063,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -6103,19 +6103,19 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -6123,12 +6123,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -6163,17 +6163,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6183,12 +6183,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -6228,12 +6228,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6243,12 +6243,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -6283,19 +6283,19 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I98" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -6303,12 +6303,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -6348,12 +6348,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -6463,17 +6463,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6483,12 +6483,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -6523,17 +6523,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6543,12 +6543,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -6583,17 +6583,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6643,17 +6643,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6663,12 +6663,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -6703,17 +6703,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6843,12 +6843,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -6883,17 +6883,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6903,12 +6903,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -6943,17 +6943,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6963,12 +6963,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -7003,17 +7003,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7123,17 +7123,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7143,12 +7143,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -7183,17 +7183,17 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -7243,17 +7243,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7263,12 +7263,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -7303,17 +7303,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7323,12 +7323,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -7363,17 +7363,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -7483,17 +7483,17 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -7543,17 +7543,17 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -7668,12 +7668,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7683,12 +7683,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -7723,17 +7723,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7743,12 +7743,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -7783,17 +7783,17 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7803,12 +7803,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -7843,17 +7843,17 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7863,12 +7863,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -7903,17 +7903,17 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7923,12 +7923,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -7963,17 +7963,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7983,12 +7983,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -8023,17 +8023,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -8083,17 +8083,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -8143,17 +8143,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8163,12 +8163,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -8203,17 +8203,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -8268,14 +8268,14 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I131" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -8283,12 +8283,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -8323,17 +8323,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8383,17 +8383,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -8403,12 +8403,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -8448,12 +8448,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8523,12 +8523,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -8563,17 +8563,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8583,12 +8583,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -8623,17 +8623,17 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -8643,12 +8643,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -8683,17 +8683,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8703,12 +8703,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -8743,17 +8743,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8763,12 +8763,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -8803,17 +8803,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8823,12 +8823,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -8863,17 +8863,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -8923,17 +8923,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8943,12 +8943,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -8983,17 +8983,17 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -9043,17 +9043,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -9103,17 +9103,17 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -9123,12 +9123,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -9163,17 +9163,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -9183,12 +9183,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -9223,17 +9223,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -9243,12 +9243,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -9283,17 +9283,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -9403,17 +9403,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -9423,12 +9423,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -9463,17 +9463,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -9483,12 +9483,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -9523,17 +9523,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -9543,12 +9543,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -9643,17 +9643,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -9663,12 +9663,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -9708,12 +9708,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -9823,19 +9823,19 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I157" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -9843,12 +9843,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -9948,12 +9948,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9963,12 +9963,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -10003,17 +10003,17 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -10023,12 +10023,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -10063,17 +10063,17 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -10083,12 +10083,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -10123,17 +10123,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -10243,17 +10243,17 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -10263,12 +10263,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -10308,12 +10308,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -10323,12 +10323,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -10368,12 +10368,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -10383,12 +10383,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -10423,19 +10423,19 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
       <c r="I167" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -10443,12 +10443,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L167" t="n">
@@ -10483,17 +10483,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -10543,17 +10543,17 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -10603,17 +10603,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -10623,12 +10623,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -10663,17 +10663,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -10683,12 +10683,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -10728,12 +10728,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L172" t="n">
@@ -10783,17 +10783,17 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -10803,12 +10803,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L173" t="n">

--- a/temp_timetable.xlsx
+++ b/temp_timetable.xlsx
@@ -523,17 +523,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -583,7 +583,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -643,17 +643,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -703,17 +703,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -763,17 +763,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -823,17 +823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -883,17 +883,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -948,12 +948,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -963,12 +963,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1123,17 +1123,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1143,12 +1143,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1183,19 +1183,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -1203,12 +1203,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1303,17 +1303,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1363,17 +1363,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1423,17 +1423,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1483,17 +1483,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1503,12 +1503,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1543,17 +1543,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1603,17 +1603,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1663,17 +1663,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1723,17 +1723,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1783,17 +1783,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2083,19 +2083,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -2103,12 +2103,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2203,17 +2203,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2268,12 +2268,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2323,17 +2323,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2388,12 +2388,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2443,17 +2443,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2463,12 +2463,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -2503,17 +2503,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -2623,17 +2623,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2643,12 +2643,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -2683,17 +2683,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2763,12 +2763,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -2808,12 +2808,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -2923,17 +2923,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2988,12 +2988,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3043,17 +3043,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3063,12 +3063,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3103,19 +3103,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -3223,17 +3223,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3283,17 +3283,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3343,17 +3343,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3463,17 +3463,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3483,12 +3483,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -3523,17 +3523,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -3583,17 +3583,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -3648,12 +3648,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -3703,17 +3703,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -3763,17 +3763,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3783,12 +3783,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -3828,12 +3828,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -3883,17 +3883,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3943,17 +3943,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3963,12 +3963,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -4003,17 +4003,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4063,17 +4063,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -4123,17 +4123,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4143,12 +4143,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -4183,17 +4183,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -4243,17 +4243,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -4303,17 +4303,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -4483,17 +4483,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -4543,19 +4543,19 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -4563,12 +4563,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -4603,19 +4603,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -4623,12 +4623,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -4668,12 +4668,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -4723,17 +4723,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4743,12 +4743,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -4903,17 +4903,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4923,12 +4923,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -5023,17 +5023,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5043,12 +5043,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -5083,17 +5083,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5163,12 +5163,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -5203,17 +5203,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5223,12 +5223,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -5263,17 +5263,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5323,17 +5323,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5343,12 +5343,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -5383,17 +5383,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5443,17 +5443,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -5563,17 +5563,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5583,12 +5583,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -5623,17 +5623,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5643,12 +5643,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -5683,17 +5683,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5703,12 +5703,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -5743,17 +5743,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -5803,17 +5803,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -5923,19 +5923,19 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I92" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -5943,12 +5943,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -5983,17 +5983,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -6163,17 +6163,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6228,12 +6228,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6243,12 +6243,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -6283,17 +6283,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -6343,17 +6343,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6463,17 +6463,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6483,12 +6483,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -6583,19 +6583,19 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -6643,17 +6643,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6663,12 +6663,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -6703,17 +6703,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6763,17 +6763,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6783,12 +6783,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -6823,19 +6823,19 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
       <c r="I107" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -6843,12 +6843,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -6883,17 +6883,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6943,17 +6943,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6963,12 +6963,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -7003,17 +7003,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -7063,17 +7063,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7083,12 +7083,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -7183,17 +7183,17 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -7243,19 +7243,19 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I114" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -7263,12 +7263,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -7308,12 +7308,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7363,19 +7363,19 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -7383,12 +7383,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -7428,14 +7428,14 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -7443,12 +7443,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -7483,17 +7483,17 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -7543,17 +7543,17 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7563,12 +7563,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -7603,17 +7603,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -7668,12 +7668,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7683,12 +7683,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -7788,12 +7788,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7843,17 +7843,17 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7863,12 +7863,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -7903,17 +7903,17 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7923,12 +7923,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -7963,17 +7963,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7983,12 +7983,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -8023,17 +8023,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -8083,17 +8083,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -8143,17 +8143,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8163,12 +8163,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -8203,17 +8203,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8223,12 +8223,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -8263,17 +8263,17 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8323,19 +8323,19 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I132" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -8343,12 +8343,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -8383,17 +8383,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -8403,12 +8403,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -8443,17 +8443,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -8503,17 +8503,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8523,12 +8523,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -8563,17 +8563,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8583,12 +8583,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -8628,12 +8628,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -8643,12 +8643,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -8683,17 +8683,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8703,12 +8703,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -8743,17 +8743,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8763,12 +8763,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -8803,17 +8803,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -8863,17 +8863,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -8923,17 +8923,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8943,12 +8943,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -8983,17 +8983,17 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -9043,19 +9043,19 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
       <c r="I144" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -9063,12 +9063,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -9103,17 +9103,17 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -9123,12 +9123,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -9163,17 +9163,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -9183,12 +9183,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -9223,17 +9223,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -9243,12 +9243,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -9283,17 +9283,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -9343,17 +9343,17 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -9363,12 +9363,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -9463,17 +9463,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -9483,12 +9483,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -9523,17 +9523,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -9583,17 +9583,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -9603,12 +9603,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -9643,17 +9643,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -9703,17 +9703,17 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -9763,17 +9763,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9783,12 +9783,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -9823,17 +9823,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9843,12 +9843,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -9943,17 +9943,17 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9963,12 +9963,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -10063,19 +10063,19 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I161" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -10083,12 +10083,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -10123,17 +10123,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -10243,17 +10243,17 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -10263,12 +10263,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -10303,17 +10303,17 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -10368,12 +10368,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -10383,12 +10383,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -10423,19 +10423,19 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
       <c r="I167" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -10443,12 +10443,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L167" t="n">
@@ -10488,12 +10488,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10503,12 +10503,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L168" t="n">
@@ -10548,14 +10548,14 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I169" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -10563,12 +10563,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -10603,17 +10603,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -10623,12 +10623,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -10663,17 +10663,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -10683,12 +10683,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -10723,17 +10723,17 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L172" t="n">
@@ -10783,17 +10783,17 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -10803,12 +10803,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L173" t="n">

--- a/temp_timetable.xlsx
+++ b/temp_timetable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,17 +523,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -583,17 +583,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -648,12 +648,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -703,17 +703,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -763,19 +763,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -783,12 +783,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -823,17 +823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -888,12 +888,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -943,17 +943,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -963,12 +963,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1008,14 +1008,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -1023,12 +1023,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1183,19 +1183,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1303,19 +1303,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1483,17 +1483,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1503,12 +1503,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1543,17 +1543,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1603,17 +1603,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1723,17 +1723,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1783,17 +1783,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1843,19 +1843,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -1863,12 +1863,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1903,17 +1903,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2023,17 +2023,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2083,17 +2083,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2143,17 +2143,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2203,19 +2203,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2263,17 +2263,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2388,12 +2388,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2443,17 +2443,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2463,12 +2463,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -2503,17 +2503,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -2563,17 +2563,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2623,17 +2623,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2643,12 +2643,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -2688,12 +2688,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2803,17 +2803,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2863,17 +2863,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -2923,17 +2923,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2988,12 +2988,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -3043,17 +3043,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3063,12 +3063,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3103,17 +3103,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3283,17 +3283,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3348,12 +3348,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3483,12 +3483,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -3523,17 +3523,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3583,17 +3583,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3703,17 +3703,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -3828,12 +3828,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -3883,17 +3883,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3903,12 +3903,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -3943,17 +3943,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3963,12 +3963,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -4003,17 +4003,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4068,12 +4068,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -4183,17 +4183,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -4243,17 +4243,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -4303,17 +4303,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -4483,17 +4483,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -4543,17 +4543,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4603,17 +4603,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4668,12 +4668,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -4723,17 +4723,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4783,17 +4783,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -4843,17 +4843,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -4963,17 +4963,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4983,12 +4983,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -5023,17 +5023,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5043,12 +5043,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -5083,17 +5083,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -5203,17 +5203,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5223,12 +5223,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -5263,17 +5263,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -5323,17 +5323,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5343,12 +5343,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -5388,12 +5388,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5403,12 +5403,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -5443,17 +5443,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -5503,17 +5503,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5563,17 +5563,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5583,12 +5583,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5643,12 +5643,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -5688,14 +5688,14 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I88" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5743,17 +5743,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -5803,19 +5803,19 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -5823,12 +5823,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -5863,17 +5863,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5883,12 +5883,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5943,12 +5943,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -5983,17 +5983,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -6043,19 +6043,19 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -6063,12 +6063,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -6103,17 +6103,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6123,12 +6123,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -6163,17 +6163,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6183,12 +6183,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -6223,17 +6223,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6243,12 +6243,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -6283,17 +6283,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -6348,12 +6348,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -6403,17 +6403,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -6463,17 +6463,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6483,12 +6483,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -6528,12 +6528,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6543,12 +6543,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -6583,17 +6583,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -6643,17 +6643,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -6768,12 +6768,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6783,12 +6783,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -6943,17 +6943,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6963,12 +6963,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -7063,17 +7063,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -7123,17 +7123,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -7183,19 +7183,19 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I113" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -7203,12 +7203,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -7243,17 +7243,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7263,7 +7263,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -7303,17 +7303,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7363,19 +7363,19 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -7383,12 +7383,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -7423,17 +7423,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7443,12 +7443,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -7483,19 +7483,19 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I118" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -7503,12 +7503,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -7603,17 +7603,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -7663,17 +7663,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7683,12 +7683,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -7723,17 +7723,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7743,12 +7743,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -7788,12 +7788,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7803,12 +7803,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -7843,17 +7843,17 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7863,12 +7863,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -7908,12 +7908,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7923,12 +7923,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -7963,17 +7963,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7983,12 +7983,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -8083,17 +8083,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -8148,12 +8148,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8163,12 +8163,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -8203,17 +8203,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8223,12 +8223,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -8263,17 +8263,17 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8283,12 +8283,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -8323,17 +8323,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8343,12 +8343,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -8383,17 +8383,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -8403,12 +8403,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -8443,17 +8443,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -8563,17 +8563,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -8628,14 +8628,14 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I137" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -8643,12 +8643,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -8688,12 +8688,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8703,12 +8703,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -8748,12 +8748,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8763,12 +8763,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -8808,12 +8808,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8823,12 +8823,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -8863,19 +8863,19 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I141" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -8883,12 +8883,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -8923,19 +8923,19 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I142" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -8943,12 +8943,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -8983,17 +8983,17 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -9043,17 +9043,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -9103,19 +9103,19 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
       <c r="I145" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -9123,12 +9123,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -9163,17 +9163,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -9228,12 +9228,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -9243,12 +9243,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -9283,17 +9283,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -9343,17 +9343,17 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -9363,12 +9363,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -9403,17 +9403,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -9463,17 +9463,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -9523,17 +9523,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -9543,12 +9543,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -9643,17 +9643,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -9663,12 +9663,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -9763,17 +9763,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9783,12 +9783,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -9823,17 +9823,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -9943,19 +9943,19 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I159" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -10003,17 +10003,17 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -10023,12 +10023,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -10063,17 +10063,17 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -10083,12 +10083,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -10123,17 +10123,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -10188,12 +10188,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -10203,12 +10203,12 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -10248,12 +10248,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -10263,12 +10263,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -10303,17 +10303,17 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -10323,12 +10323,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -10363,17 +10363,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -10383,12 +10383,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -10423,17 +10423,17 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -10443,12 +10443,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L167" t="n">
@@ -10483,17 +10483,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10503,12 +10503,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L168" t="n">
@@ -10543,19 +10543,19 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I169" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -10603,17 +10603,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -10623,12 +10623,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L172" t="n">
@@ -10783,17 +10783,17 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -10803,16 +10803,196 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L173" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>BIT-2A</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Digital Forensics</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Dr. Noor</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>BIT201</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Theory</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>2 hours</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>12:00-14:00</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Room-107</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>BIT-2A</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Digital Forensics</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Dr. Noor</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>BIT201</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Theory</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Room-107</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>BIT-2A</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Digital Forensics</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Dr. Noor</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>BIT201</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Lab-5</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/temp_timetable.xlsx
+++ b/temp_timetable.xlsx
@@ -523,17 +523,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -583,17 +583,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -703,17 +703,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -763,17 +763,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -823,19 +823,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -843,12 +843,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -883,17 +883,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -943,17 +943,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -963,12 +963,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1143,12 +1143,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1363,19 +1363,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -1383,12 +1383,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1423,17 +1423,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1483,17 +1483,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1503,12 +1503,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1543,17 +1543,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1663,17 +1663,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1723,17 +1723,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1843,17 +1843,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1903,17 +1903,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1968,12 +1968,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2023,17 +2023,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2043,12 +2043,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2083,17 +2083,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2203,17 +2203,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2263,17 +2263,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2323,17 +2323,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2443,17 +2443,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2463,12 +2463,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -2503,17 +2503,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -2568,12 +2568,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -2623,17 +2623,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2643,12 +2643,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -2923,17 +2923,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2983,17 +2983,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -3043,19 +3043,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -3063,12 +3063,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3103,17 +3103,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -3223,17 +3223,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3283,17 +3283,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3343,17 +3343,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -3403,17 +3403,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -3463,17 +3463,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3483,12 +3483,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -3523,19 +3523,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -3543,12 +3543,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -3583,17 +3583,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3643,17 +3643,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -3703,17 +3703,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -3763,17 +3763,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3783,12 +3783,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -3828,12 +3828,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -3883,17 +3883,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3903,12 +3903,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -3943,17 +3943,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4003,17 +4003,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4063,17 +4063,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -4123,17 +4123,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4143,12 +4143,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -4183,17 +4183,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -4243,19 +4243,19 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -4263,12 +4263,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -4303,17 +4303,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -4423,17 +4423,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4443,12 +4443,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -4483,17 +4483,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -4603,17 +4603,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4743,12 +4743,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -4788,12 +4788,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4843,17 +4843,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4863,12 +4863,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -4903,17 +4903,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4923,12 +4923,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -4963,17 +4963,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4983,12 +4983,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5043,12 +5043,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -5083,17 +5083,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5163,12 +5163,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -5203,17 +5203,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5223,12 +5223,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -5263,17 +5263,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -5323,17 +5323,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5343,12 +5343,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -5383,17 +5383,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5403,12 +5403,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -5443,19 +5443,19 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I84" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -5463,12 +5463,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -5563,19 +5563,19 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I86" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -5583,12 +5583,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -5623,17 +5623,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5643,12 +5643,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -5743,17 +5743,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -5803,17 +5803,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -5868,12 +5868,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5883,12 +5883,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -5988,12 +5988,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -6043,17 +6043,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6063,12 +6063,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -6103,17 +6103,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6123,12 +6123,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -6163,19 +6163,19 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I96" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -6183,12 +6183,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -6288,12 +6288,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -6403,17 +6403,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -6463,19 +6463,19 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6523,17 +6523,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6543,12 +6543,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -6583,17 +6583,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -6643,17 +6643,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6663,12 +6663,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -6703,17 +6703,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>11:00-13:00</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-104</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -6883,19 +6883,19 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -6903,12 +6903,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -6943,17 +6943,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6963,12 +6963,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -7003,17 +7003,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>09:00-11:00</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -7063,17 +7063,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7083,12 +7083,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -7128,12 +7128,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7143,12 +7143,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -7183,17 +7183,17 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -7243,17 +7243,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7263,12 +7263,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -7303,17 +7303,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7363,19 +7363,19 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -7383,12 +7383,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -7423,17 +7423,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7443,12 +7443,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -7483,17 +7483,17 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -7543,17 +7543,17 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7563,12 +7563,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -7603,17 +7603,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -7663,17 +7663,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7683,12 +7683,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -7723,19 +7723,19 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
       <c r="I122" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -7743,12 +7743,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -7783,17 +7783,17 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7803,12 +7803,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -7843,19 +7843,19 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I124" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -7863,12 +7863,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -7903,17 +7903,17 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7923,12 +7923,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -8023,17 +8023,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -8083,17 +8083,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -8143,17 +8143,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8163,12 +8163,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -8203,17 +8203,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8223,12 +8223,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -8263,17 +8263,17 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8283,12 +8283,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -8323,17 +8323,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8343,12 +8343,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -8383,19 +8383,19 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I133" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -8403,12 +8403,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -8443,17 +8443,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -8503,17 +8503,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8523,12 +8523,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -8568,12 +8568,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8583,12 +8583,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -8623,17 +8623,17 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -8643,12 +8643,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-108</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -8688,12 +8688,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8703,12 +8703,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Room-105</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -8748,12 +8748,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8763,12 +8763,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -8803,17 +8803,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8823,12 +8823,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -8863,17 +8863,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -8923,17 +8923,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8943,12 +8943,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Room-102</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-110</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -9043,17 +9043,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -9108,12 +9108,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -9123,12 +9123,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -9163,17 +9163,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -9183,12 +9183,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -9223,17 +9223,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -9243,12 +9243,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -9283,17 +9283,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -9343,17 +9343,17 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -9363,12 +9363,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>10:00-12:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -9408,12 +9408,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -9423,12 +9423,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>13:00-15:00</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-105</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -9463,17 +9463,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -9483,12 +9483,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -9523,17 +9523,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -9543,12 +9543,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Lab-1</t>
+          <t>Lab-3</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -9583,19 +9583,19 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I153" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -9643,17 +9643,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -9663,12 +9663,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -9703,17 +9703,17 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Lab-4</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -9763,17 +9763,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -9823,17 +9823,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9843,12 +9843,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>13:00-15:00</t>
+          <t>10:00-12:00</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Room-109</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -9883,17 +9883,17 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9903,12 +9903,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -9948,14 +9948,14 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
       <c r="I159" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -9963,12 +9963,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-103</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -10003,17 +10003,17 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -10023,12 +10023,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-4</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -10063,19 +10063,19 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="I161" t="inlineStr">
         <is>
           <t>2 hours</t>
@@ -10083,12 +10083,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>14:00-16:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Room-110</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -10123,17 +10123,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Room-108</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Lab-3</t>
+          <t>Lab-2</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -10243,19 +10243,19 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="I164" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -10263,12 +10263,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Room-106</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -10303,17 +10303,17 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -10363,17 +10363,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -10383,12 +10383,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>09:00-11:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Room-104</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -10423,17 +10423,17 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -10443,12 +10443,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Room-103</t>
+          <t>Room-107</t>
         </is>
       </c>
       <c r="L167" t="n">
@@ -10483,17 +10483,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10503,12 +10503,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Lab-2</t>
+          <t>Lab-5</t>
         </is>
       </c>
       <c r="L168" t="n">
@@ -10543,19 +10543,19 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="I169" t="inlineStr">
         <is>
           <t>1 hour</t>
@@ -10563,12 +10563,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-102</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -10603,17 +10603,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -10623,12 +10623,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>11:00-13:00</t>
+          <t>08:00-10:00</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-109</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -10663,17 +10663,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -10723,17 +10723,17 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -10783,17 +10783,17 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -10803,12 +10803,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>08:00-10:00</t>
+          <t>12:00-14:00</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Room-101</t>
+          <t>Room-106</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -10843,17 +10843,17 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -10863,12 +10863,12 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>12:00-14:00</t>
+          <t>14:00-16:00</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Room-107</t>
+          <t>Room-101</t>
         </is>
       </c>
       <c r="L174" t="n">
@@ -10903,17 +10903,17 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -10968,12 +10968,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10983,12 +10983,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Lab-5</t>
+          <t>Lab-1</t>
         </is>
       </c>
       <c r="L176" t="n">
